--- a/biology/Virologie/André_Chantemesse/André_Chantemesse.xlsx
+++ b/biology/Virologie/André_Chantemesse/André_Chantemesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Chantemesse</t>
+          <t>André_Chantemesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Chantemesse, né au Puy dans la Haute-Loire le 13 octobre 1851 et mort à Paris le 25 février 1919, est un médecin et biologiste français, élève de Louis Pasteur, reconnu pour ses travaux sur la fièvre typhoïde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Chantemesse</t>
+          <t>André_Chantemesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un négociant en dentelles, il poursuit sa scolarité au collège d'Aurillac où il rencontre Émile Roux. Il travaille dans l'industrie de la dentelle à Paris entre 1871 et 1875. En 1876, à l'âge de 25 ans, il entame tardivement des études de médecine.
 À l'École de médecine de Paris, il lie connaissance avec Louis Martin, originaire comme lui du Puy. En 1884, il soutient sa thèse de doctorat intitulée: Étude sur la méningite tuberculeuse de l'adulte : les formes anormales en particulier. L'année suivante, il est envoyé à Berlin par le ministère de l'Instruction publique en mission d'étude au laboratoire bactériologique de Robert Koch. Celui-ci venait d'isoler, en 1882, le bacille de la tuberculose, plus tard appelé bacille de Koch.
@@ -520,8 +534,8 @@
 le rôle "typhogène" de certaines huîtres (1896) ;
 le rôle des porteurs latents de bacille (1902).
 En 1888, avec Fernand Widal, il met au point la première méthode de sérothérapie contre la typhoïde, obtenant ce que l'on nommera sérum de Chantemesse.
-En 1890, il devient membre de l'Assemblée de l'Institut Pasteur et soigne Louis Pasteur  pendant les dernières années de sa vie. En 1897, il est nommé professeur de pathologie expérimentale et comparée à la faculté de médecine de Paris. Élu membre de l'Académie de médecine en 1901[1], il fonde et dirige à partir de 1906 une revue mensuelle, L'hygiène générale et appliquée. En 1911 il soigne Gustave Mahler à Paris.
-Il meurt de la grippe espagnole le 25 février 1919 à son domicile 30 Rue Boissy-d'Anglas dans le 8e arrondissement de Paris[2]. Il est inhumé au cimetière du Nord du Puy-en-Velay[3].
+En 1890, il devient membre de l'Assemblée de l'Institut Pasteur et soigne Louis Pasteur  pendant les dernières années de sa vie. En 1897, il est nommé professeur de pathologie expérimentale et comparée à la faculté de médecine de Paris. Élu membre de l'Académie de médecine en 1901, il fonde et dirige à partir de 1906 une revue mensuelle, L'hygiène générale et appliquée. En 1911 il soigne Gustave Mahler à Paris.
+Il meurt de la grippe espagnole le 25 février 1919 à son domicile 30 Rue Boissy-d'Anglas dans le 8e arrondissement de Paris. Il est inhumé au cimetière du Nord du Puy-en-Velay.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Chantemesse</t>
+          <t>André_Chantemesse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Étude sur la méningite tuberculeuse de l'adulte. Les formes anormales en particulier, [Thèse de médecine de Paris, n° 124], 1884, Texte intégral.
 « L'épidémie colérique de Constantinople en 1893 », in: Gazette Médicale d'Orient, [publiée par La Société Impérial de Médecine de Constantinople], 1894, vol. 38, no 22–24, p. 282.
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Chantemesse</t>
+          <t>André_Chantemesse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,10 +614,12 @@
           <t>Titres et hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de la Légion d'Honneur (1912)[4]
-Par arrêté du 11 avril 1932 une voie du 16e arrondissement de Paris a reçu le nom d’avenue Chantemesse en son honneur. Un boulevard de la ville du Puy-en-Vlay porte son nom, par décision du conseil municipal de cette commune, du 16 avril 1919[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'Honneur (1912)
+Par arrêté du 11 avril 1932 une voie du 16e arrondissement de Paris a reçu le nom d’avenue Chantemesse en son honneur. Un boulevard de la ville du Puy-en-Vlay porte son nom, par décision du conseil municipal de cette commune, du 16 avril 1919.
 En octobre 1982 la poste lui consacre un timbre horizontal à surtaxe.
 </t>
         </is>
